--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/48/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/48/FD_Curve.xlsx
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>3.38729</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>3387.29</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>3.62088</v>
+        <v>4.38962</v>
       </c>
       <c r="C6" t="n">
-        <v>3620.88</v>
+        <v>4389.62</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>3.86849</v>
+        <v>4.83925</v>
       </c>
       <c r="C7" t="n">
-        <v>3868.49</v>
+        <v>4839.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>4.06205</v>
+        <v>5.052750000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>4062.05</v>
+        <v>5052.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>4.221439999999999</v>
+        <v>5.11174</v>
       </c>
       <c r="C9" t="n">
-        <v>4221.44</v>
+        <v>5111.74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>4.34491</v>
+        <v>5.12361</v>
       </c>
       <c r="C10" t="n">
-        <v>4344.91</v>
+        <v>5123.61</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278804</v>
+        <v>0.278893</v>
       </c>
       <c r="B11" t="n">
-        <v>4.474550000000001</v>
+        <v>5.13288</v>
       </c>
       <c r="C11" t="n">
-        <v>4474.55</v>
+        <v>5132.88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309729</v>
+        <v>0.309818</v>
       </c>
       <c r="B12" t="n">
-        <v>4.56847</v>
+        <v>5.13912</v>
       </c>
       <c r="C12" t="n">
-        <v>4568.47</v>
+        <v>5139.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340654</v>
+        <v>0.340743</v>
       </c>
       <c r="B13" t="n">
-        <v>4.65043</v>
+        <v>5.14442</v>
       </c>
       <c r="C13" t="n">
-        <v>4650.43</v>
+        <v>5144.42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371579</v>
+        <v>0.371668</v>
       </c>
       <c r="B14" t="n">
-        <v>4.72966</v>
+        <v>5.149319999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>4729.66</v>
+        <v>5149.32</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402504</v>
+        <v>0.402593</v>
       </c>
       <c r="B15" t="n">
-        <v>4.790010000000001</v>
+        <v>5.1535</v>
       </c>
       <c r="C15" t="n">
-        <v>4790.01</v>
+        <v>5153.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433429</v>
+        <v>0.433518</v>
       </c>
       <c r="B16" t="n">
-        <v>4.843319999999999</v>
+        <v>5.15694</v>
       </c>
       <c r="C16" t="n">
-        <v>4843.32</v>
+        <v>5156.94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464354</v>
+        <v>0.464443</v>
       </c>
       <c r="B17" t="n">
-        <v>4.890239999999999</v>
+        <v>5.160060000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>4890.24</v>
+        <v>5160.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495279</v>
+        <v>0.495368</v>
       </c>
       <c r="B18" t="n">
-        <v>4.92953</v>
+        <v>5.16262</v>
       </c>
       <c r="C18" t="n">
-        <v>4929.53</v>
+        <v>5162.62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526204</v>
+        <v>0.526293</v>
       </c>
       <c r="B19" t="n">
-        <v>4.96527</v>
+        <v>5.16487</v>
       </c>
       <c r="C19" t="n">
-        <v>4965.27</v>
+        <v>5164.87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557129</v>
+        <v>0.557218</v>
       </c>
       <c r="B20" t="n">
-        <v>4.99811</v>
+        <v>5.16668</v>
       </c>
       <c r="C20" t="n">
-        <v>4998.11</v>
+        <v>5166.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588054</v>
+        <v>0.588143</v>
       </c>
       <c r="B21" t="n">
-        <v>5.02892</v>
+        <v>5.16817</v>
       </c>
       <c r="C21" t="n">
-        <v>5028.92</v>
+        <v>5168.17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6190909999999999</v>
+        <v>0.619185</v>
       </c>
       <c r="B22" t="n">
-        <v>5.05376</v>
+        <v>5.16944</v>
       </c>
       <c r="C22" t="n">
-        <v>5053.76</v>
+        <v>5169.44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650268</v>
+        <v>0.650357</v>
       </c>
       <c r="B23" t="n">
-        <v>5.080520000000001</v>
+        <v>5.17044</v>
       </c>
       <c r="C23" t="n">
-        <v>5080.52</v>
+        <v>5170.44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681441</v>
+        <v>0.68153</v>
       </c>
       <c r="B24" t="n">
-        <v>5.10253</v>
+        <v>5.17123</v>
       </c>
       <c r="C24" t="n">
-        <v>5102.53</v>
+        <v>5171.23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712618</v>
+        <v>0.712707</v>
       </c>
       <c r="B25" t="n">
-        <v>5.12599</v>
+        <v>5.17185</v>
       </c>
       <c r="C25" t="n">
-        <v>5125.99</v>
+        <v>5171.85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743791</v>
+        <v>0.74388</v>
       </c>
       <c r="B26" t="n">
-        <v>5.144979999999999</v>
+        <v>5.17225</v>
       </c>
       <c r="C26" t="n">
-        <v>5144.98</v>
+        <v>5172.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.774963</v>
+        <v>0.775057</v>
       </c>
       <c r="B27" t="n">
-        <v>5.16642</v>
+        <v>5.172470000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>5166.42</v>
+        <v>5172.47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.80614</v>
+        <v>0.806229</v>
       </c>
       <c r="B28" t="n">
-        <v>5.18439</v>
+        <v>5.172479999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>5184.39</v>
+        <v>5172.48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837313</v>
+        <v>0.837402</v>
       </c>
       <c r="B29" t="n">
-        <v>5.202520000000001</v>
+        <v>5.17233</v>
       </c>
       <c r="C29" t="n">
-        <v>5202.52</v>
+        <v>5172.33</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868485</v>
+        <v>0.868579</v>
       </c>
       <c r="B30" t="n">
-        <v>5.220140000000001</v>
+        <v>5.172</v>
       </c>
       <c r="C30" t="n">
-        <v>5220.14</v>
+        <v>5172</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899662</v>
+        <v>0.899751</v>
       </c>
       <c r="B31" t="n">
-        <v>5.23642</v>
+        <v>5.17147</v>
       </c>
       <c r="C31" t="n">
-        <v>5236.42</v>
+        <v>5171.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930835</v>
+        <v>0.930924</v>
       </c>
       <c r="B32" t="n">
-        <v>5.25281</v>
+        <v>5.17078</v>
       </c>
       <c r="C32" t="n">
-        <v>5252.81</v>
+        <v>5170.78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962012</v>
+        <v>0.962101</v>
       </c>
       <c r="B33" t="n">
-        <v>5.26873</v>
+        <v>5.1699</v>
       </c>
       <c r="C33" t="n">
-        <v>5268.73</v>
+        <v>5169.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993184</v>
+        <v>0.993273</v>
       </c>
       <c r="B34" t="n">
-        <v>5.28344</v>
+        <v>5.16887</v>
       </c>
       <c r="C34" t="n">
-        <v>5283.44</v>
+        <v>5168.87</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02422</v>
+        <v>1.02457</v>
       </c>
       <c r="B35" t="n">
-        <v>5.29761</v>
+        <v>5.16764</v>
       </c>
       <c r="C35" t="n">
-        <v>5297.61</v>
+        <v>5167.64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05519</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>5.311590000000001</v>
+        <v>5.16625</v>
       </c>
       <c r="C36" t="n">
-        <v>5311.59</v>
+        <v>5166.25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08616</v>
+        <v>1.08733</v>
       </c>
       <c r="B37" t="n">
-        <v>5.32535</v>
+        <v>5.164689999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>5325.35</v>
+        <v>5164.69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11712</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>5.3387</v>
+        <v>5.16294</v>
       </c>
       <c r="C38" t="n">
-        <v>5338.7</v>
+        <v>5162.94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14809</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>5.35154</v>
+        <v>5.16103</v>
       </c>
       <c r="C39" t="n">
-        <v>5351.54</v>
+        <v>5161.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17906</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>5.36397</v>
+        <v>5.15897</v>
       </c>
       <c r="C40" t="n">
-        <v>5363.97</v>
+        <v>5158.97</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21003</v>
+        <v>1.21267</v>
       </c>
       <c r="B41" t="n">
-        <v>5.37608</v>
+        <v>5.15676</v>
       </c>
       <c r="C41" t="n">
-        <v>5376.08</v>
+        <v>5156.76</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.241</v>
+        <v>1.24364</v>
       </c>
       <c r="B42" t="n">
-        <v>5.387890000000001</v>
+        <v>5.1544</v>
       </c>
       <c r="C42" t="n">
-        <v>5387.89</v>
+        <v>5154.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27196</v>
+        <v>1.2746</v>
       </c>
       <c r="B43" t="n">
-        <v>5.39941</v>
+        <v>5.151899999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>5399.41</v>
+        <v>5151.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30293</v>
+        <v>1.30557</v>
       </c>
       <c r="B44" t="n">
-        <v>5.41063</v>
+        <v>5.14925</v>
       </c>
       <c r="C44" t="n">
-        <v>5410.63</v>
+        <v>5149.25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.3339</v>
+        <v>1.33654</v>
       </c>
       <c r="B45" t="n">
-        <v>5.42157</v>
+        <v>5.146470000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>5421.57</v>
+        <v>5146.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36487</v>
+        <v>1.36751</v>
       </c>
       <c r="B46" t="n">
-        <v>5.43226</v>
+        <v>5.14354</v>
       </c>
       <c r="C46" t="n">
-        <v>5432.26</v>
+        <v>5143.54</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39584</v>
+        <v>1.39822</v>
       </c>
       <c r="B47" t="n">
-        <v>5.442670000000001</v>
+        <v>5.14045</v>
       </c>
       <c r="C47" t="n">
-        <v>5442.67</v>
+        <v>5140.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.4268</v>
+        <v>1.42878</v>
       </c>
       <c r="B48" t="n">
-        <v>5.45283</v>
+        <v>5.13721</v>
       </c>
       <c r="C48" t="n">
-        <v>5452.83</v>
+        <v>5137.21</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45777</v>
+        <v>1.45934</v>
       </c>
       <c r="B49" t="n">
-        <v>5.46275</v>
+        <v>5.13384</v>
       </c>
       <c r="C49" t="n">
-        <v>5462.75</v>
+        <v>5133.84</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48874</v>
+        <v>1.48989</v>
       </c>
       <c r="B50" t="n">
-        <v>5.47241</v>
+        <v>5.13036</v>
       </c>
       <c r="C50" t="n">
-        <v>5472.41</v>
+        <v>5130.36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51971</v>
+        <v>1.52107</v>
       </c>
       <c r="B51" t="n">
-        <v>5.48181</v>
+        <v>5.1267</v>
       </c>
       <c r="C51" t="n">
-        <v>5481.81</v>
+        <v>5126.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55067</v>
+        <v>1.55264</v>
       </c>
       <c r="B52" t="n">
-        <v>5.49098</v>
+        <v>5.122850000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>5490.98</v>
+        <v>5122.85</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58164</v>
+        <v>1.58406</v>
       </c>
       <c r="B53" t="n">
-        <v>5.49994</v>
+        <v>5.11875</v>
       </c>
       <c r="C53" t="n">
-        <v>5499.94</v>
+        <v>5118.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61261</v>
+        <v>1.6152</v>
       </c>
       <c r="B54" t="n">
-        <v>5.50868</v>
+        <v>5.114520000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>5508.68</v>
+        <v>5114.52</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64358</v>
+        <v>1.64635</v>
       </c>
       <c r="B55" t="n">
-        <v>5.517189999999999</v>
+        <v>5.1102</v>
       </c>
       <c r="C55" t="n">
-        <v>5517.19</v>
+        <v>5110.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67424</v>
+        <v>1.6775</v>
       </c>
       <c r="B56" t="n">
-        <v>5.52552</v>
+        <v>5.10574</v>
       </c>
       <c r="C56" t="n">
-        <v>5525.52</v>
+        <v>5105.74</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.7048</v>
+        <v>1.70864</v>
       </c>
       <c r="B57" t="n">
-        <v>5.53364</v>
+        <v>5.10101</v>
       </c>
       <c r="C57" t="n">
-        <v>5533.64</v>
+        <v>5101.01</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73536</v>
+        <v>1.73979</v>
       </c>
       <c r="B58" t="n">
-        <v>5.54156</v>
+        <v>5.09609</v>
       </c>
       <c r="C58" t="n">
-        <v>5541.56</v>
+        <v>5096.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76591</v>
+        <v>1.77078</v>
       </c>
       <c r="B59" t="n">
-        <v>5.54934</v>
+        <v>5.09105</v>
       </c>
       <c r="C59" t="n">
-        <v>5549.34</v>
+        <v>5091.05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79646</v>
+        <v>1.80151</v>
       </c>
       <c r="B60" t="n">
-        <v>5.55694</v>
+        <v>5.08592</v>
       </c>
       <c r="C60" t="n">
-        <v>5556.94</v>
+        <v>5085.92</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82702</v>
+        <v>1.83222</v>
       </c>
       <c r="B61" t="n">
-        <v>5.56437</v>
+        <v>5.08058</v>
       </c>
       <c r="C61" t="n">
-        <v>5564.37</v>
+        <v>5080.58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.85757</v>
+        <v>1.86294</v>
       </c>
       <c r="B62" t="n">
-        <v>5.57163</v>
+        <v>5.075010000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>5571.63</v>
+        <v>5075.01</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.88901</v>
+        <v>1.89367</v>
       </c>
       <c r="B63" t="n">
-        <v>5.57895</v>
+        <v>5.06928</v>
       </c>
       <c r="C63" t="n">
-        <v>5578.95</v>
+        <v>5069.28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92058</v>
+        <v>1.92439</v>
       </c>
       <c r="B64" t="n">
-        <v>5.58609</v>
+        <v>5.06345</v>
       </c>
       <c r="C64" t="n">
-        <v>5586.09</v>
+        <v>5063.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95216</v>
+        <v>1.95507</v>
       </c>
       <c r="B65" t="n">
-        <v>5.59309</v>
+        <v>5.05742</v>
       </c>
       <c r="C65" t="n">
-        <v>5593.09</v>
+        <v>5057.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98373</v>
+        <v>1.98641</v>
       </c>
       <c r="B66" t="n">
-        <v>5.59991</v>
+        <v>5.05103</v>
       </c>
       <c r="C66" t="n">
-        <v>5599.91</v>
+        <v>5051.03</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01493</v>
+        <v>2.01783</v>
       </c>
       <c r="B67" t="n">
-        <v>5.606560000000001</v>
+        <v>5.04432</v>
       </c>
       <c r="C67" t="n">
-        <v>5606.56</v>
+        <v>5044.32</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.0465</v>
+        <v>2.04899</v>
       </c>
       <c r="B68" t="n">
-        <v>5.613090000000001</v>
+        <v>5.03745</v>
       </c>
       <c r="C68" t="n">
-        <v>5613.09</v>
+        <v>5037.45</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07807</v>
+        <v>2.07989</v>
       </c>
       <c r="B69" t="n">
-        <v>5.61945</v>
+        <v>5.03042</v>
       </c>
       <c r="C69" t="n">
-        <v>5619.45</v>
+        <v>5030.42</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10965</v>
+        <v>2.11078</v>
       </c>
       <c r="B70" t="n">
-        <v>5.625649999999999</v>
+        <v>5.02318</v>
       </c>
       <c r="C70" t="n">
-        <v>5625.65</v>
+        <v>5023.18</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.14122</v>
+        <v>2.14168</v>
       </c>
       <c r="B71" t="n">
-        <v>5.631720000000001</v>
+        <v>5.0157</v>
       </c>
       <c r="C71" t="n">
-        <v>5631.72</v>
+        <v>5015.7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.17212</v>
+        <v>2.17257</v>
       </c>
       <c r="B72" t="n">
-        <v>5.63764</v>
+        <v>5.00796</v>
       </c>
       <c r="C72" t="n">
-        <v>5637.64</v>
+        <v>5007.96</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20284</v>
+        <v>2.20347</v>
       </c>
       <c r="B73" t="n">
-        <v>5.6434</v>
+        <v>4.99986</v>
       </c>
       <c r="C73" t="n">
-        <v>5643.4</v>
+        <v>4999.86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23356</v>
+        <v>2.23437</v>
       </c>
       <c r="B74" t="n">
-        <v>5.64903</v>
+        <v>4.99138</v>
       </c>
       <c r="C74" t="n">
-        <v>5649.03</v>
+        <v>4991.38</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26428</v>
+        <v>2.26526</v>
       </c>
       <c r="B75" t="n">
-        <v>5.65453</v>
+        <v>4.98256</v>
       </c>
       <c r="C75" t="n">
-        <v>5654.53</v>
+        <v>4982.56</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.295</v>
+        <v>2.29616</v>
       </c>
       <c r="B76" t="n">
-        <v>5.659899999999999</v>
+        <v>4.97343</v>
       </c>
       <c r="C76" t="n">
-        <v>5659.9</v>
+        <v>4973.43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32572</v>
+        <v>2.32706</v>
       </c>
       <c r="B77" t="n">
-        <v>5.66513</v>
+        <v>4.96391</v>
       </c>
       <c r="C77" t="n">
-        <v>5665.13</v>
+        <v>4963.91</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35644</v>
+        <v>2.35795</v>
       </c>
       <c r="B78" t="n">
-        <v>5.67022</v>
+        <v>4.95392</v>
       </c>
       <c r="C78" t="n">
-        <v>5670.22</v>
+        <v>4953.92</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38716</v>
+        <v>2.38885</v>
       </c>
       <c r="B79" t="n">
-        <v>5.6752</v>
+        <v>4.94354</v>
       </c>
       <c r="C79" t="n">
-        <v>5675.2</v>
+        <v>4943.54</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41788</v>
+        <v>2.41975</v>
       </c>
       <c r="B80" t="n">
-        <v>5.68004</v>
+        <v>4.932810000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>5680.04</v>
+        <v>4932.81</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.4486</v>
+        <v>2.45161</v>
       </c>
       <c r="B81" t="n">
-        <v>5.68478</v>
+        <v>4.92151</v>
       </c>
       <c r="C81" t="n">
-        <v>5684.78</v>
+        <v>4921.51</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47932</v>
+        <v>2.48361</v>
       </c>
       <c r="B82" t="n">
-        <v>5.68941</v>
+        <v>4.90988</v>
       </c>
       <c r="C82" t="n">
-        <v>5689.41</v>
+        <v>4909.88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.51004</v>
+        <v>2.51561</v>
       </c>
       <c r="B83" t="n">
-        <v>5.6939</v>
+        <v>4.89778</v>
       </c>
       <c r="C83" t="n">
-        <v>5693.9</v>
+        <v>4897.78</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.54076</v>
+        <v>2.54761</v>
       </c>
       <c r="B84" t="n">
-        <v>5.698270000000001</v>
+        <v>4.8852</v>
       </c>
       <c r="C84" t="n">
-        <v>5698.27</v>
+        <v>4885.2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57148</v>
+        <v>2.57929</v>
       </c>
       <c r="B85" t="n">
-        <v>5.702529999999999</v>
+        <v>4.87216</v>
       </c>
       <c r="C85" t="n">
-        <v>5702.53</v>
+        <v>4872.16</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.6022</v>
+        <v>2.61037</v>
       </c>
       <c r="B86" t="n">
-        <v>5.70668</v>
+        <v>4.858770000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>5706.68</v>
+        <v>4858.77</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63292</v>
+        <v>2.64146</v>
       </c>
       <c r="B87" t="n">
-        <v>5.71071</v>
+        <v>4.845050000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>5710.71</v>
+        <v>4845.05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66364</v>
+        <v>2.67196</v>
       </c>
       <c r="B88" t="n">
-        <v>5.714630000000001</v>
+        <v>4.83081</v>
       </c>
       <c r="C88" t="n">
-        <v>5714.63</v>
+        <v>4830.81</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.69436</v>
+        <v>2.70213</v>
       </c>
       <c r="B89" t="n">
-        <v>5.718439999999999</v>
+        <v>4.81618</v>
       </c>
       <c r="C89" t="n">
-        <v>5718.44</v>
+        <v>4816.18</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72508</v>
+        <v>2.7335</v>
       </c>
       <c r="B90" t="n">
-        <v>5.72215</v>
+        <v>4.80039</v>
       </c>
       <c r="C90" t="n">
-        <v>5722.15</v>
+        <v>4800.39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.7558</v>
+        <v>2.765</v>
       </c>
       <c r="B91" t="n">
-        <v>5.72576</v>
+        <v>4.78338</v>
       </c>
       <c r="C91" t="n">
-        <v>5725.76</v>
+        <v>4783.38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.78603</v>
+        <v>2.79651</v>
       </c>
       <c r="B92" t="n">
-        <v>5.729270000000001</v>
+        <v>4.765770000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>5729.27</v>
+        <v>4765.77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.81589</v>
+        <v>2.82722</v>
       </c>
       <c r="B93" t="n">
-        <v>5.732670000000001</v>
+        <v>4.7476</v>
       </c>
       <c r="C93" t="n">
-        <v>5732.67</v>
+        <v>4747.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.84576</v>
+        <v>2.85774</v>
       </c>
       <c r="B94" t="n">
-        <v>5.73595</v>
+        <v>4.72885</v>
       </c>
       <c r="C94" t="n">
-        <v>5735.95</v>
+        <v>4728.85</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.87563</v>
+        <v>2.88803</v>
       </c>
       <c r="B95" t="n">
-        <v>5.739140000000001</v>
+        <v>4.709090000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>5739.14</v>
+        <v>4709.09</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.90549</v>
+        <v>2.92003</v>
       </c>
       <c r="B96" t="n">
-        <v>5.742229999999999</v>
+        <v>4.68741</v>
       </c>
       <c r="C96" t="n">
-        <v>5742.23</v>
+        <v>4687.41</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.93536</v>
+        <v>2.95137</v>
       </c>
       <c r="B97" t="n">
-        <v>5.745220000000001</v>
+        <v>4.66487</v>
       </c>
       <c r="C97" t="n">
-        <v>5745.22</v>
+        <v>4664.87</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.96522</v>
+        <v>2.9823</v>
       </c>
       <c r="B98" t="n">
-        <v>5.74808</v>
+        <v>4.64158</v>
       </c>
       <c r="C98" t="n">
-        <v>5748.08</v>
+        <v>4641.58</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2.99567</v>
+        <v>3.01255</v>
       </c>
       <c r="B99" t="n">
-        <v>5.75091</v>
+        <v>4.61756</v>
       </c>
       <c r="C99" t="n">
-        <v>5750.91</v>
+        <v>4617.56</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.02768</v>
+        <v>3.04385</v>
       </c>
       <c r="B100" t="n">
-        <v>5.75378</v>
+        <v>4.59174</v>
       </c>
       <c r="C100" t="n">
-        <v>5753.78</v>
+        <v>4591.74</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.05967</v>
+        <v>3.07533</v>
       </c>
       <c r="B101" t="n">
-        <v>5.75651</v>
+        <v>4.56428</v>
       </c>
       <c r="C101" t="n">
-        <v>5756.51</v>
+        <v>4564.28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09167</v>
+        <v>3.10675</v>
       </c>
       <c r="B102" t="n">
-        <v>5.75915</v>
+        <v>4.53591</v>
       </c>
       <c r="C102" t="n">
-        <v>5759.15</v>
+        <v>4535.91</v>
       </c>
     </row>
   </sheetData>
